--- a/Datasets_Processing/KLEIJN 2015 DATABASE/42_44_MiaParkApple_2009_2010_2011/Park_field time area.xlsx
+++ b/Datasets_Processing/KLEIJN 2015 DATABASE/42_44_MiaParkApple_2009_2010_2011/Park_field time area.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1908" windowWidth="20112" windowHeight="7740"/>
+    <workbookView xWindow="120" yWindow="3108" windowWidth="20112" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,15 +602,15 @@
         <v>2009</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
